--- a/patient_status/inference_inibica.xlsx
+++ b/patient_status/inference_inibica.xlsx
@@ -1334,7 +1334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +1349,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1389,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1401,6 +1408,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1708,8 +1730,8 @@
   <dimension ref="A1:KJ110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P104" sqref="P104"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2877,13 +2899,16 @@
       <c r="B2" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="G2" s="2">
@@ -2908,6 +2933,9 @@
         <v>0.9</v>
       </c>
       <c r="N2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="5">
         <v>0.1</v>
       </c>
       <c r="P2" s="4">
@@ -3761,13 +3789,14 @@
       <c r="B3" s="2">
         <v>0.40625</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C3" s="8"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="2">
@@ -3793,6 +3822,9 @@
       </c>
       <c r="N3" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.01</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>305</v>
@@ -4645,16 +4677,16 @@
       <c r="B4" s="2">
         <v>0.484375</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="2">
@@ -4680,6 +4712,9 @@
       </c>
       <c r="N4" s="3">
         <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.1</v>
       </c>
       <c r="P4" s="4">
         <v>0</v>
@@ -5532,16 +5567,16 @@
       <c r="B5" s="2">
         <v>0.609375</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="2">
@@ -5567,6 +5602,9 @@
       </c>
       <c r="N5" s="3">
         <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.05</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>312</v>
@@ -6419,16 +6457,16 @@
       <c r="B6" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="2">
@@ -6455,8 +6493,8 @@
       <c r="N6" s="3">
         <v>0.9</v>
       </c>
-      <c r="O6" s="2">
-        <v>0.45</v>
+      <c r="O6" s="5">
+        <v>0.2</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>305</v>
@@ -7309,16 +7347,16 @@
       <c r="B7" s="2">
         <v>0.421875</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="2">
@@ -7345,8 +7383,8 @@
       <c r="N7" s="3">
         <v>0.8</v>
       </c>
-      <c r="O7" s="2">
-        <v>0.3</v>
+      <c r="O7" s="5">
+        <v>0.01</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>312</v>
@@ -8199,16 +8237,16 @@
       <c r="B8" s="2">
         <v>0.390625</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="2">
@@ -8235,8 +8273,8 @@
       <c r="N8" s="3">
         <v>0.95</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
+      <c r="O8" s="5">
+        <v>0.03</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -9089,16 +9127,16 @@
       <c r="B9" s="2">
         <v>0.296875</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="2">
@@ -9125,8 +9163,8 @@
       <c r="N9" s="3">
         <v>0.85</v>
       </c>
-      <c r="O9" s="2">
-        <v>0.15</v>
+      <c r="O9" s="5">
+        <v>0.05</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
@@ -9979,14 +10017,15 @@
       <c r="B10" s="2">
         <v>0.46875</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -10012,8 +10051,8 @@
       <c r="N10" s="3">
         <v>0.75</v>
       </c>
-      <c r="O10" s="2">
-        <v>0.45</v>
+      <c r="O10" s="5">
+        <v>0.5</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -10866,16 +10905,16 @@
       <c r="B11" s="2">
         <v>0.203125</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="2">
@@ -10902,8 +10941,8 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
-        <v>0.45</v>
+      <c r="O11" s="5">
+        <v>0.2</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -11756,16 +11795,16 @@
       <c r="B12" s="2">
         <v>0.34375</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="2">
@@ -11791,6 +11830,9 @@
       </c>
       <c r="N12" s="3">
         <v>0.99</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.06</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
@@ -12643,16 +12685,16 @@
       <c r="B13" s="2">
         <v>0.3125</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="2">
@@ -12678,6 +12720,9 @@
       </c>
       <c r="N13" s="3">
         <v>0.6</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
@@ -13530,16 +13575,16 @@
       <c r="B14" s="2">
         <v>0.71875</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>1</v>
       </c>
       <c r="G14" s="2">
@@ -13566,8 +13611,8 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="2">
-        <v>0.5</v>
+      <c r="O14" s="5">
+        <v>0.2</v>
       </c>
       <c r="P14" s="4">
         <v>0</v>
@@ -14420,16 +14465,16 @@
       <c r="B15" s="2">
         <v>0.609375</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="2">
@@ -14456,8 +14501,8 @@
       <c r="N15" s="3">
         <v>0.5</v>
       </c>
-      <c r="O15" s="2">
-        <v>0.04</v>
+      <c r="O15" s="5">
+        <v>0.05</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>305</v>
@@ -15310,16 +15355,16 @@
       <c r="B16" s="2">
         <v>0.359375</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="2">
@@ -15346,8 +15391,8 @@
       <c r="N16" s="3">
         <v>0.15</v>
       </c>
-      <c r="O16" s="2">
-        <v>0.65</v>
+      <c r="O16" s="5">
+        <v>0.1</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>305</v>
@@ -16200,16 +16245,16 @@
       <c r="B17" s="2">
         <v>0.46875</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="2">
@@ -16235,6 +16280,9 @@
       </c>
       <c r="N17" s="3">
         <v>0.1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.15</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>305</v>
@@ -17087,14 +17135,17 @@
       <c r="B18" s="2">
         <v>0.875</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -17120,8 +17171,8 @@
       <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="O18" s="2">
-        <v>0.4</v>
+      <c r="O18" s="5">
+        <v>0.2</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>305</v>
@@ -17974,16 +18025,16 @@
       <c r="B19" s="2">
         <v>0.609375</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="2">
@@ -18009,6 +18060,9 @@
       </c>
       <c r="N19" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.06</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -18861,16 +18915,16 @@
       <c r="B20" s="2">
         <v>0.625</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -18896,6 +18950,9 @@
       </c>
       <c r="N20" s="3">
         <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.05</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>312</v>
@@ -19748,17 +19805,17 @@
       <c r="B21" s="2">
         <v>0.546875</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -19783,6 +19840,9 @@
       </c>
       <c r="N21" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.05</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -20635,16 +20695,16 @@
       <c r="B22" s="2">
         <v>0.609375</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="2">
@@ -20670,6 +20730,9 @@
       </c>
       <c r="N22" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.2</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -21522,13 +21585,16 @@
       <c r="B23" s="2">
         <v>0.25</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>1</v>
       </c>
       <c r="G23" s="2">
@@ -21555,8 +21621,8 @@
       <c r="N23" s="3">
         <v>0.5</v>
       </c>
-      <c r="O23" s="2">
-        <v>0.8</v>
+      <c r="O23" s="5">
+        <v>0.3</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>380</v>
@@ -22409,16 +22475,16 @@
       <c r="B24" s="2">
         <v>0.328125</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
         <v>1</v>
       </c>
       <c r="G24" s="2">
@@ -22445,7 +22511,7 @@
       <c r="N24" s="3">
         <v>0.9</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="5">
         <v>0.15</v>
       </c>
       <c r="P24" s="4">
@@ -23299,16 +23365,16 @@
       <c r="B25" s="2">
         <v>0.625</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
         <v>1</v>
       </c>
       <c r="G25" s="2">
@@ -23335,7 +23401,7 @@
       <c r="N25" s="3">
         <v>1</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="5">
         <v>0.2</v>
       </c>
       <c r="P25" s="4">
@@ -24189,16 +24255,16 @@
       <c r="B26" s="2">
         <v>0.203125</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="2">
@@ -24224,6 +24290,9 @@
       </c>
       <c r="N26" s="3">
         <v>0.5</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.02</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>305</v>
@@ -25076,16 +25145,16 @@
       <c r="B27" s="2">
         <v>0.28125</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
         <v>1</v>
       </c>
       <c r="G27" s="2">
@@ -25111,6 +25180,9 @@
       </c>
       <c r="N27" s="3">
         <v>0.7</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.04</v>
       </c>
       <c r="P27" s="4">
         <v>0</v>
@@ -25963,16 +26035,16 @@
       <c r="B28" s="2">
         <v>0.25</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="2">
@@ -25998,6 +26070,9 @@
       </c>
       <c r="N28" s="3">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.08</v>
       </c>
       <c r="P28" s="4">
         <v>0</v>
@@ -26850,16 +26925,16 @@
       <c r="B29" s="2">
         <v>0.546875</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
         <v>1</v>
       </c>
       <c r="G29" s="2">
@@ -26885,6 +26960,9 @@
       </c>
       <c r="N29" s="3">
         <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.06</v>
       </c>
       <c r="P29" s="4">
         <v>0</v>
@@ -27737,16 +27815,16 @@
       <c r="B30" s="2">
         <v>0.5</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="2">
@@ -27772,6 +27850,9 @@
       </c>
       <c r="N30" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.02</v>
       </c>
       <c r="P30" s="4">
         <v>0</v>
@@ -28624,16 +28705,16 @@
       <c r="B31" s="2">
         <v>0.40625</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="2">
@@ -28660,8 +28741,8 @@
       <c r="N31" s="3">
         <v>0.04</v>
       </c>
-      <c r="O31" s="2">
-        <v>0.15</v>
+      <c r="O31" s="5">
+        <v>0.01</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>312</v>
@@ -29514,16 +29595,16 @@
       <c r="B32" s="2">
         <v>0.328125</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
         <v>1</v>
       </c>
       <c r="G32" s="2">
@@ -29549,6 +29630,9 @@
       </c>
       <c r="N32" s="3">
         <v>0.75</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.15</v>
       </c>
       <c r="P32" s="4">
         <v>0</v>
@@ -30401,16 +30485,16 @@
       <c r="B33" s="2">
         <v>0.3125</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <v>1</v>
       </c>
       <c r="G33" s="2">
@@ -30436,6 +30520,9 @@
       </c>
       <c r="N33" s="3">
         <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.01</v>
       </c>
       <c r="P33" s="4">
         <v>0</v>
@@ -31288,13 +31375,16 @@
       <c r="B34" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
         <v>1</v>
       </c>
       <c r="G34" s="2">
@@ -31320,6 +31410,9 @@
       </c>
       <c r="N34" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.15</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>305</v>
@@ -32172,16 +32265,16 @@
       <c r="B35" s="2">
         <v>0.203125</v>
       </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
         <v>1</v>
       </c>
       <c r="G35" s="2">
@@ -32207,6 +32300,9 @@
       </c>
       <c r="N35" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.2</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>305</v>
@@ -33059,16 +33155,16 @@
       <c r="B36" s="2">
         <v>0.515625</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="2">
@@ -33094,6 +33190,9 @@
       </c>
       <c r="N36" s="3">
         <v>0.5</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.02</v>
       </c>
       <c r="P36" s="4">
         <v>0</v>
@@ -33946,13 +34045,16 @@
       <c r="B37" s="2">
         <v>0.21875</v>
       </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
         <v>1</v>
       </c>
       <c r="G37" s="2">
@@ -33978,6 +34080,9 @@
       </c>
       <c r="N37" s="3">
         <v>0.1</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.2</v>
       </c>
       <c r="P37" s="4">
         <v>0</v>
@@ -34830,13 +34935,16 @@
       <c r="B38" s="2">
         <v>0.59375</v>
       </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
         <v>1</v>
       </c>
       <c r="G38" s="2">
@@ -34862,6 +34970,9 @@
       </c>
       <c r="N38" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
       </c>
       <c r="P38" s="4">
         <v>0</v>
@@ -35714,16 +35825,16 @@
       <c r="B39" s="2">
         <v>0.765625</v>
       </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39" s="2">
@@ -35749,6 +35860,9 @@
       </c>
       <c r="N39" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.25</v>
       </c>
       <c r="P39" s="4">
         <v>0</v>
@@ -36601,16 +36715,16 @@
       <c r="B40" s="2">
         <v>0.109375</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C40" s="9">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="2">
@@ -36635,6 +36749,9 @@
         <v>0.7</v>
       </c>
       <c r="N40" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O40" s="5">
         <v>0.2</v>
       </c>
       <c r="P40" s="2" t="s">
@@ -37488,16 +37605,16 @@
       <c r="B41" s="2">
         <v>0.609375</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C41" s="9">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="2">
@@ -37523,6 +37640,9 @@
       </c>
       <c r="N41" s="3">
         <v>0.6</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
@@ -38375,16 +38495,16 @@
       <c r="B42" s="2">
         <v>0.78125</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="2">
@@ -38410,6 +38530,9 @@
       </c>
       <c r="N42" s="3">
         <v>0.05</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.08</v>
       </c>
       <c r="P42" s="4">
         <v>0</v>
@@ -39262,16 +39385,16 @@
       <c r="B43" s="2">
         <v>0.796875</v>
       </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="C43" s="9">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="2">
@@ -39297,6 +39420,9 @@
       </c>
       <c r="N43" s="3">
         <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.02</v>
       </c>
       <c r="P43" s="4">
         <v>0</v>
@@ -40149,16 +40275,16 @@
       <c r="B44" s="2">
         <v>0.828125</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -40183,6 +40309,9 @@
         <v>0.9</v>
       </c>
       <c r="N44" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O44" s="5">
         <v>0.03</v>
       </c>
       <c r="P44" s="4">
@@ -41036,13 +41165,16 @@
       <c r="B45" s="2">
         <v>0.625</v>
       </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="2">
@@ -41068,6 +41200,9 @@
       </c>
       <c r="N45" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
       </c>
       <c r="P45" s="4">
         <v>0</v>
@@ -41920,13 +42055,16 @@
       <c r="B46" s="2">
         <v>0.671875</v>
       </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="2">
@@ -41952,6 +42090,9 @@
       </c>
       <c r="N46" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
       </c>
       <c r="P46" s="4">
         <v>0</v>
@@ -42804,16 +42945,16 @@
       <c r="B47" s="2">
         <v>0.5</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="C47" s="9">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47" s="2">
@@ -42839,6 +42980,9 @@
       </c>
       <c r="N47" s="3">
         <v>0.05</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.01</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>380</v>
@@ -43691,16 +43835,14 @@
       <c r="B48" s="2">
         <v>0.71875</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="2">
@@ -43726,6 +43868,9 @@
       </c>
       <c r="N48" s="3">
         <v>0.1</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.2</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>305</v>
@@ -44578,13 +44723,16 @@
       <c r="B49" s="2">
         <v>0.46875</v>
       </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="C49" s="9">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
         <v>0</v>
       </c>
       <c r="G49" s="2">
@@ -44610,6 +44758,9 @@
       </c>
       <c r="N49" s="3">
         <v>0.1</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>312</v>
@@ -45462,16 +45613,16 @@
       <c r="B50" s="2">
         <v>0.5625</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="C50" s="9">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50" s="2">
@@ -45497,6 +45648,9 @@
       </c>
       <c r="N50" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
       </c>
       <c r="P50" s="4">
         <v>0</v>
@@ -46349,13 +46503,16 @@
       <c r="B51" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="C51" s="9">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51" s="2">
@@ -46381,6 +46538,9 @@
       </c>
       <c r="N51" s="3">
         <v>0.95</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
       </c>
       <c r="P51" s="4">
         <v>0</v>
@@ -47233,13 +47393,16 @@
       <c r="B52" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="C52" s="9">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52" s="2">
@@ -47264,6 +47427,9 @@
         <v>0.9</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
         <v>0</v>
       </c>
       <c r="P52" s="2" t="s">
@@ -48117,13 +48283,16 @@
       <c r="B53" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="C53" s="9">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="2">
@@ -48149,6 +48318,9 @@
       </c>
       <c r="N53" s="3">
         <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0.02</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>305</v>
@@ -49001,16 +49173,16 @@
       <c r="B54" s="2">
         <v>0.609375</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="C54" s="9">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54" s="2">
@@ -49035,6 +49207,9 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
         <v>0</v>
       </c>
       <c r="P54" s="2" t="s">
@@ -49888,16 +50063,16 @@
       <c r="B55" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="C55" s="9">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55" s="2">
@@ -49923,6 +50098,9 @@
       </c>
       <c r="N55" s="3">
         <v>1</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
       </c>
       <c r="P55" s="4">
         <v>0</v>
@@ -50775,13 +50953,16 @@
       <c r="B56" s="2">
         <v>0.28125</v>
       </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="C56" s="9">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56" s="2">
@@ -50807,6 +50988,9 @@
       </c>
       <c r="N56" s="3">
         <v>0.7</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
       </c>
       <c r="P56" s="4">
         <v>0</v>
@@ -51659,16 +51843,16 @@
       <c r="B57" s="2">
         <v>0.671875</v>
       </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57" s="2">
@@ -51694,6 +51878,9 @@
       </c>
       <c r="N57" s="3">
         <v>0.1</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0.04</v>
       </c>
       <c r="P57" s="4">
         <v>0</v>
@@ -52546,13 +52733,16 @@
       <c r="B58" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58" s="2">
@@ -52577,6 +52767,9 @@
         <v>0.01</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
         <v>0</v>
       </c>
       <c r="P58" s="4">
@@ -53430,16 +53623,16 @@
       <c r="B59" s="2">
         <v>0.75</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59" s="2">
@@ -53466,8 +53659,8 @@
       <c r="N59" s="3">
         <v>0.9</v>
       </c>
-      <c r="O59" s="2">
-        <v>0.35</v>
+      <c r="O59" s="6">
+        <v>0.02</v>
       </c>
       <c r="P59" s="4">
         <v>0</v>
@@ -54320,13 +54513,16 @@
       <c r="B60" s="2">
         <v>0.28125</v>
       </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="C60" s="9">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5">
         <v>0</v>
       </c>
       <c r="G60" s="2">
@@ -54352,6 +54548,9 @@
       </c>
       <c r="N60" s="3">
         <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0.02</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>305</v>
@@ -55204,16 +55403,16 @@
       <c r="B61" s="2">
         <v>0.71875</v>
       </c>
-      <c r="C61" s="2">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="C61" s="9">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
         <v>0</v>
       </c>
       <c r="G61" s="2">
@@ -55239,6 +55438,9 @@
       </c>
       <c r="N61" s="3">
         <v>0.6</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0.04</v>
       </c>
       <c r="P61" s="4">
         <v>0</v>
@@ -56091,13 +56293,16 @@
       <c r="B62" s="2">
         <v>0.25</v>
       </c>
-      <c r="D62" s="2">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62" s="2">
@@ -56124,8 +56329,8 @@
       <c r="N62" s="3">
         <v>0.2</v>
       </c>
-      <c r="O62" s="2">
-        <v>0.3</v>
+      <c r="O62" s="6">
+        <v>0.05</v>
       </c>
       <c r="P62" s="4">
         <v>0</v>
@@ -56978,16 +57183,16 @@
       <c r="B63" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="C63" s="9">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
         <v>1</v>
       </c>
       <c r="G63" s="2">
@@ -57013,6 +57218,9 @@
       </c>
       <c r="N63" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O63" s="6">
+        <v>0.01</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>380</v>
@@ -57865,16 +58073,16 @@
       <c r="B64" s="2">
         <v>0.484375</v>
       </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="C64" s="9">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64" s="2">
@@ -57900,6 +58108,9 @@
       </c>
       <c r="N64" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O64" s="6">
+        <v>0.01</v>
       </c>
       <c r="P64" s="4">
         <v>0</v>
@@ -58752,16 +58963,16 @@
       <c r="B65" s="2">
         <v>0.453125</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="C65" s="9">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65" s="2">
@@ -58786,6 +58997,9 @@
         <v>0.8</v>
       </c>
       <c r="N65" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="O65" s="6">
         <v>0.3</v>
       </c>
       <c r="P65" s="4">
@@ -59639,13 +59853,16 @@
       <c r="B66" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="C66" s="9">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66" s="2">
@@ -59672,8 +59889,8 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="2">
-        <v>0.8</v>
+      <c r="O66" s="6">
+        <v>0.3</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>305</v>
@@ -60526,17 +60743,17 @@
       <c r="B67" s="2">
         <v>0.796875</v>
       </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
       </c>
       <c r="G67" s="2">
         <v>0</v>
@@ -60562,8 +60779,8 @@
       <c r="N67" s="3">
         <v>0.3</v>
       </c>
-      <c r="O67" s="2">
-        <v>0.15</v>
+      <c r="O67" s="6">
+        <v>0.1</v>
       </c>
       <c r="P67" s="4">
         <v>0</v>
@@ -61416,13 +61633,16 @@
       <c r="B68" s="2">
         <v>0.796875</v>
       </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
         <v>0</v>
       </c>
       <c r="G68" s="2">
@@ -61448,6 +61668,9 @@
       </c>
       <c r="N68" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O68" s="6">
+        <v>0.06</v>
       </c>
       <c r="P68" s="4">
         <v>0</v>
@@ -62300,13 +62523,16 @@
       <c r="B69" s="2">
         <v>0.796875</v>
       </c>
-      <c r="D69" s="2">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="C69" s="9">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69" s="2">
@@ -62332,6 +62558,9 @@
       </c>
       <c r="N69" s="3">
         <v>0.1</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0</v>
       </c>
       <c r="P69" s="4">
         <v>0</v>
@@ -63184,16 +63413,16 @@
       <c r="B70" s="2">
         <v>0.296875</v>
       </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="C70" s="9">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70" s="2">
@@ -63220,8 +63449,8 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="2">
-        <v>0.6</v>
+      <c r="O70" s="6">
+        <v>0.05</v>
       </c>
       <c r="P70" s="4">
         <v>0</v>
@@ -64074,16 +64303,16 @@
       <c r="B71" s="2">
         <v>0.578125</v>
       </c>
-      <c r="C71" s="2">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="C71" s="9">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71" s="2">
@@ -64110,8 +64339,8 @@
       <c r="N71" s="3">
         <v>0.75</v>
       </c>
-      <c r="O71" s="2">
-        <v>0.2</v>
+      <c r="O71" s="6">
+        <v>0.03</v>
       </c>
       <c r="P71" s="4">
         <v>0</v>
@@ -64964,13 +65193,16 @@
       <c r="B72" s="2">
         <v>0.421875</v>
       </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="C72" s="9">
+        <v>0</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7">
         <v>0</v>
       </c>
       <c r="G72" s="2">
@@ -64997,8 +65229,8 @@
       <c r="N72" s="3">
         <v>0.7</v>
       </c>
-      <c r="O72" s="2">
-        <v>0.2</v>
+      <c r="O72" s="6">
+        <v>0.3</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>305</v>
@@ -65851,13 +66083,16 @@
       <c r="B73" s="2">
         <v>0.78125</v>
       </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="C73" s="9">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="2">
@@ -65884,8 +66119,8 @@
       <c r="N73" s="3">
         <v>0.6</v>
       </c>
-      <c r="O73" s="2">
-        <v>0.09</v>
+      <c r="O73" s="6">
+        <v>0.02</v>
       </c>
       <c r="P73" s="4">
         <v>0</v>
@@ -66738,13 +66973,16 @@
       <c r="B74" s="2">
         <v>0.578125</v>
       </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2">
-        <v>0</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="C74" s="9">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74" s="2">
@@ -66770,6 +67008,9 @@
       </c>
       <c r="N74" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O74" s="6">
+        <v>0.02</v>
       </c>
       <c r="P74" s="4">
         <v>0</v>
@@ -67622,13 +67863,16 @@
       <c r="B75" s="2">
         <v>0.75</v>
       </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="C75" s="9">
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75" s="2">
@@ -67654,6 +67898,9 @@
       </c>
       <c r="N75" s="3">
         <v>1</v>
+      </c>
+      <c r="O75" s="6">
+        <v>0.06</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>305</v>
@@ -68506,16 +68753,16 @@
       <c r="B76" s="2">
         <v>0.734375</v>
       </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="C76" s="9">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76" s="2">
@@ -68541,6 +68788,9 @@
       </c>
       <c r="N76" s="3">
         <v>0</v>
+      </c>
+      <c r="O76" s="6">
+        <v>0.2</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>312</v>
@@ -69393,13 +69643,16 @@
       <c r="B77" s="2">
         <v>0.515625</v>
       </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="C77" s="9">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77" s="2">
@@ -69426,8 +69679,8 @@
       <c r="N77" s="3">
         <v>0.2</v>
       </c>
-      <c r="O77" s="2">
-        <v>0.4</v>
+      <c r="O77" s="6">
+        <v>0.2</v>
       </c>
       <c r="P77" s="4">
         <v>0</v>
@@ -70280,13 +70533,16 @@
       <c r="B78" s="2">
         <v>0.71875</v>
       </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
+      <c r="C78" s="9">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78" s="2">
@@ -70313,8 +70569,8 @@
       <c r="N78" s="3">
         <v>0.9</v>
       </c>
-      <c r="O78" s="2">
-        <v>0.35</v>
+      <c r="O78" s="6">
+        <v>0.1</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>305</v>
@@ -71167,16 +71423,16 @@
       <c r="B79" s="2">
         <v>0.890625</v>
       </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2">
+      <c r="C79" s="9">
+        <v>0</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79" s="2">
@@ -71202,6 +71458,9 @@
       </c>
       <c r="N79" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O79" s="6">
+        <v>0.15</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>312</v>
@@ -72054,16 +72313,16 @@
       <c r="B80" s="2">
         <v>0.484375</v>
       </c>
-      <c r="C80" s="2">
-        <v>0</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2">
+      <c r="C80" s="9">
+        <v>0</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80" s="2">
@@ -72089,6 +72348,9 @@
       </c>
       <c r="N80" s="3">
         <v>0.2</v>
+      </c>
+      <c r="O80" s="6">
+        <v>0.02</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>380</v>
@@ -72941,16 +73203,16 @@
       <c r="B81" s="2">
         <v>0.875</v>
       </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2">
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="G81" s="2">
@@ -72976,6 +73238,9 @@
       </c>
       <c r="N81" s="3">
         <v>1</v>
+      </c>
+      <c r="O81" s="6">
+        <v>0</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>380</v>
@@ -73828,16 +74093,16 @@
       <c r="B82" s="2">
         <v>0.28125</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2">
+      <c r="C82" s="9">
+        <v>0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
         <v>0</v>
       </c>
       <c r="G82" s="2">
@@ -73864,8 +74129,8 @@
       <c r="N82" s="3">
         <v>0.3</v>
       </c>
-      <c r="O82" s="2">
-        <v>0.25</v>
+      <c r="O82" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P82" s="4">
         <v>0</v>
@@ -74718,16 +74983,16 @@
       <c r="B83" s="2">
         <v>0.765625</v>
       </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="C83" s="9">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83" s="2">
@@ -74754,8 +75019,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="2">
-        <v>0.48</v>
+      <c r="O83" s="6">
+        <v>0.06</v>
       </c>
       <c r="P83" s="4">
         <v>0</v>
@@ -75608,14 +75873,17 @@
       <c r="B84" s="2">
         <v>0.734375</v>
       </c>
-      <c r="D84" s="2">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2">
-        <v>0</v>
+      <c r="C84" s="9">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -75641,8 +75909,8 @@
       <c r="N84" s="3">
         <v>0.6</v>
       </c>
-      <c r="O84" s="2">
-        <v>0.17</v>
+      <c r="O84" s="6">
+        <v>0.15</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>380</v>
@@ -76495,16 +76763,16 @@
       <c r="B85" s="2">
         <v>0.390625</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2">
+      <c r="C85" s="9">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85" s="2">
@@ -76531,8 +76799,8 @@
       <c r="N85" s="3">
         <v>0.5</v>
       </c>
-      <c r="O85" s="2">
-        <v>0.1</v>
+      <c r="O85" s="6">
+        <v>0.06</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>380</v>
@@ -77385,16 +77653,16 @@
       <c r="B86" s="2">
         <v>0.21875</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2">
+      <c r="C86" s="9">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86" s="2">
@@ -77420,6 +77688,9 @@
       </c>
       <c r="N86" s="3">
         <v>0.95</v>
+      </c>
+      <c r="O86" s="6">
+        <v>0.02</v>
       </c>
       <c r="P86" s="4">
         <v>0</v>
@@ -78272,13 +78543,16 @@
       <c r="B87" s="2">
         <v>0.828125</v>
       </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
-        <v>0</v>
-      </c>
-      <c r="F87" s="2">
+      <c r="C87" s="9">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87" s="2">
@@ -78304,6 +78578,9 @@
       </c>
       <c r="N87" s="3">
         <v>0.6</v>
+      </c>
+      <c r="O87" s="6">
+        <v>0</v>
       </c>
       <c r="P87" s="4">
         <v>0</v>
@@ -79156,16 +79433,16 @@
       <c r="B88" s="2">
         <v>0.828125</v>
       </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="C88" s="9">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88" s="2">
@@ -79192,8 +79469,8 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="2">
-        <v>0.15</v>
+      <c r="O88" s="6">
+        <v>0</v>
       </c>
       <c r="P88" s="4">
         <v>0</v>
@@ -80046,16 +80323,16 @@
       <c r="B89" s="2">
         <v>0.515625</v>
       </c>
-      <c r="C89" s="2">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="C89" s="9">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89" s="2">
@@ -80082,8 +80359,8 @@
       <c r="N89" s="3">
         <v>0.95</v>
       </c>
-      <c r="O89" s="2">
-        <v>0.25</v>
+      <c r="O89" s="6">
+        <v>0.02</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>305</v>
@@ -80936,16 +81213,16 @@
       <c r="B90" s="2">
         <v>0.34375</v>
       </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
+      <c r="C90" s="9">
+        <v>0</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
         <v>0</v>
       </c>
       <c r="G90" s="2">
@@ -80972,8 +81249,8 @@
       <c r="N90" s="3">
         <v>0.01</v>
       </c>
-      <c r="O90" s="2">
-        <v>0.95</v>
+      <c r="O90" s="6">
+        <v>0.15</v>
       </c>
       <c r="P90" s="4">
         <v>0</v>
@@ -81826,13 +82103,16 @@
       <c r="B91" s="2">
         <v>9.375E-2</v>
       </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2">
+      <c r="C91" s="9">
+        <v>0</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91" s="2">
@@ -81858,6 +82138,9 @@
       </c>
       <c r="N91" s="3">
         <v>0.7</v>
+      </c>
+      <c r="O91" s="6">
+        <v>0.1</v>
       </c>
       <c r="P91" s="4">
         <v>0</v>
@@ -82710,16 +82993,16 @@
       <c r="B92" s="2">
         <v>0.25</v>
       </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="C92" s="9">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92" s="2">
@@ -82745,6 +83028,9 @@
       </c>
       <c r="N92" s="3">
         <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0.1</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>312</v>
@@ -83597,14 +83883,17 @@
       <c r="B93" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2">
-        <v>0</v>
-      </c>
-      <c r="F93" s="2">
-        <v>0</v>
+      <c r="C93" s="9">
+        <v>0</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
@@ -83630,8 +83919,8 @@
       <c r="N93" s="3">
         <v>0.8</v>
       </c>
-      <c r="O93" s="2">
-        <v>0.1</v>
+      <c r="O93" s="6">
+        <v>0.01</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>305</v>
@@ -84484,16 +84773,16 @@
       <c r="B94" s="2">
         <v>0.75</v>
       </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2">
+      <c r="C94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94" s="5">
         <v>0</v>
       </c>
       <c r="G94" s="2">
@@ -84519,6 +84808,9 @@
       </c>
       <c r="N94" s="3">
         <v>0.4</v>
+      </c>
+      <c r="O94" s="6">
+        <v>0</v>
       </c>
       <c r="P94" s="4">
         <v>0</v>
@@ -85371,13 +85663,16 @@
       <c r="B95" s="2">
         <v>0.75</v>
       </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2">
+      <c r="C95" s="9">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95" s="2">
@@ -85403,6 +85698,9 @@
       </c>
       <c r="N95" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O95" s="6">
+        <v>0</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>305</v>
@@ -86255,14 +86553,17 @@
       <c r="B96" s="2">
         <v>0.765625</v>
       </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2">
-        <v>0</v>
+      <c r="C96" s="9">
+        <v>0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
       </c>
       <c r="G96" s="2">
         <v>0</v>
@@ -86288,8 +86589,8 @@
       <c r="N96" s="3">
         <v>0.15</v>
       </c>
-      <c r="O96" s="2">
-        <v>0.4</v>
+      <c r="O96" s="6">
+        <v>0.15</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>305</v>
@@ -87142,16 +87443,16 @@
       <c r="B97" s="2">
         <v>0.421875</v>
       </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2">
+      <c r="C97" s="9">
+        <v>0</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97" s="2">
@@ -87177,6 +87478,9 @@
       </c>
       <c r="N97" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O97" s="6">
+        <v>0</v>
       </c>
       <c r="P97" s="4">
         <v>0</v>
@@ -88029,16 +88333,16 @@
       <c r="B98" s="2">
         <v>0.46875</v>
       </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
+      <c r="C98" s="9">
+        <v>0</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1</v>
+      </c>
+      <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98" s="2">
@@ -88063,6 +88367,9 @@
         <v>0.9</v>
       </c>
       <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="6">
         <v>0</v>
       </c>
       <c r="P98" s="2" t="s">
@@ -88916,16 +89223,16 @@
       <c r="B99" s="2">
         <v>0.765625</v>
       </c>
-      <c r="C99" s="2">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2">
+      <c r="C99" s="9">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
         <v>0</v>
       </c>
       <c r="G99" s="2">
@@ -88951,6 +89258,9 @@
       </c>
       <c r="N99" s="3">
         <v>0.9</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>305</v>
@@ -89803,16 +90113,16 @@
       <c r="B100" s="2">
         <v>0.296875</v>
       </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2">
+      <c r="C100" s="9">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
         <v>0</v>
       </c>
       <c r="G100" s="2">
@@ -89838,6 +90148,9 @@
       </c>
       <c r="N100" s="3">
         <v>0.5</v>
+      </c>
+      <c r="O100" s="6">
+        <v>0</v>
       </c>
       <c r="P100" s="4">
         <v>0</v>
@@ -90690,16 +91003,16 @@
       <c r="B101" s="2">
         <v>0.71875</v>
       </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2">
+      <c r="C101" s="9">
+        <v>0</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101" s="2">
@@ -90725,6 +91038,9 @@
       </c>
       <c r="N101" s="3">
         <v>0.8</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0.1</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>312</v>
@@ -91577,13 +91893,16 @@
       <c r="B102" s="2">
         <v>0.796875</v>
       </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2">
+      <c r="C102" s="9">
+        <v>0</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102" s="2">
@@ -91609,6 +91928,9 @@
       </c>
       <c r="N102" s="3">
         <v>0.2</v>
+      </c>
+      <c r="O102" s="6">
+        <v>0.05</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>305</v>
@@ -92461,16 +92783,16 @@
       <c r="B103" s="2">
         <v>0.71875</v>
       </c>
-      <c r="C103" s="2">
-        <v>1</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="C103" s="9">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
         <v>1</v>
       </c>
       <c r="G103" s="2">
@@ -92496,6 +92818,9 @@
       </c>
       <c r="N103" s="3">
         <v>1</v>
+      </c>
+      <c r="O103" s="6">
+        <v>0.01</v>
       </c>
       <c r="P103" s="2">
         <v>0</v>
@@ -93348,13 +93673,16 @@
       <c r="B104" s="2">
         <v>0.65625</v>
       </c>
-      <c r="D104" s="2">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <v>0</v>
-      </c>
-      <c r="F104" s="2">
+      <c r="C104" s="9">
+        <v>0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104" s="2">
@@ -93380,6 +93708,9 @@
       </c>
       <c r="N104" s="3">
         <v>0.2</v>
+      </c>
+      <c r="O104" s="6">
+        <v>0.01</v>
       </c>
       <c r="P104" s="4">
         <v>0</v>
@@ -94232,16 +94563,16 @@
       <c r="B105" s="2">
         <v>0.765625</v>
       </c>
-      <c r="C105" s="2">
-        <v>0</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2">
+      <c r="C105" s="9">
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105" s="2">
@@ -94268,8 +94599,8 @@
       <c r="N105" s="3">
         <v>0.05</v>
       </c>
-      <c r="O105" s="2">
-        <v>0.7</v>
+      <c r="O105" s="6">
+        <v>0.1</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>305</v>
@@ -95122,16 +95453,16 @@
       <c r="B106" s="2">
         <v>0.5625</v>
       </c>
-      <c r="C106" s="2">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2">
+      <c r="C106" s="9">
+        <v>0</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106" s="2">
@@ -95157,6 +95488,9 @@
       </c>
       <c r="N106" s="3">
         <v>0.03</v>
+      </c>
+      <c r="O106" s="6">
+        <v>0</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>305</v>
@@ -96009,13 +96343,16 @@
       <c r="B107" s="2">
         <v>0.25</v>
       </c>
-      <c r="D107" s="2">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="2">
+      <c r="C107" s="9">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107" s="2">
@@ -96041,6 +96378,9 @@
       </c>
       <c r="N107" s="3">
         <v>0.95</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0.1</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>305</v>
@@ -96893,13 +97233,16 @@
       <c r="B108" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D108" s="2">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2">
+      <c r="C108" s="9">
+        <v>0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1</v>
+      </c>
+      <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="2">
@@ -96926,8 +97269,8 @@
       <c r="N108" s="3">
         <v>0</v>
       </c>
-      <c r="O108" s="2">
-        <v>0.8</v>
+      <c r="O108" s="6">
+        <v>0.4</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>380</v>
@@ -97780,16 +98123,16 @@
       <c r="B109" s="2">
         <v>0.671875</v>
       </c>
-      <c r="C109" s="2">
-        <v>0</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2">
+      <c r="C109" s="9">
+        <v>0</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="2">
@@ -97815,6 +98158,9 @@
       </c>
       <c r="N109" s="3">
         <v>0</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0.1</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>305</v>
@@ -98667,16 +99013,16 @@
       <c r="B110" s="2">
         <v>0.5625</v>
       </c>
-      <c r="C110" s="2">
-        <v>1</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2">
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="G110" s="2">
@@ -98703,8 +99049,8 @@
       <c r="N110" s="3">
         <v>0</v>
       </c>
-      <c r="O110" s="2">
-        <v>0.3</v>
+      <c r="O110" s="6">
+        <v>0.2</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>380</v>
@@ -99553,5 +99899,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>